--- a/output/pdexplanpractitioner.xlsx
+++ b/output/pdexplanpractitioner.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$44</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="348">
   <si>
     <t>Path</t>
   </si>
@@ -131,29 +131,36 @@
     <t>Mapping: ServD</t>
   </si>
   <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
+    <t>Mapping: W5 Mapping</t>
   </si>
   <si>
     <t>Practitioner</t>
   </si>
   <si>
+    <t xml:space="preserve">Provider
+</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>A person with a  formal responsibility in the provisioning of healthcare or related services</t>
-  </si>
-  <si>
-    <t>A person who is directly or indirectly involved in the provisioning of healthcare.</t>
+    <t>US Core Practitioner</t>
+  </si>
+  <si>
+    <t>This is basic constraint on provider for use in US Core resources.</t>
+  </si>
+  <si>
+    <t>Note that a cab driver no longer fits the bill. You probably would be interested in the organization rather than the individual?</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.div.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -163,6 +170,9 @@
   </si>
   <si>
     <t>Provider</t>
+  </si>
+  <si>
+    <t>administrative.individual</t>
   </si>
   <si>
     <t>Practitioner.id</t>
@@ -200,7 +210,7 @@
     <t>Metadata about the resource</t>
   </si>
   <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content may not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
@@ -216,10 +226,11 @@
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
+This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -238,10 +249,10 @@
     <t>The base language in which the resource is written.</t>
   </si>
   <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>extensible</t>
   </si>
   <si>
     <t>A human language.</t>
@@ -267,13 +278,17 @@
     <t>Text summary of the resource, for human interpretation</t>
   </si>
   <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded in formation is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-1
+</t>
   </si>
   <si>
     <t>Act.text?</t>
@@ -296,7 +311,7 @@
     <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
   </si>
   <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -316,10 +331,10 @@
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
@@ -334,11 +349,7 @@
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -351,13 +362,13 @@
 </t>
   </si>
   <si>
-    <t>An identifier for the person as this agent</t>
+    <t>A identifier for the person as this agent</t>
   </si>
   <si>
     <t>An identifier that applies to this person in this role.</t>
   </si>
   <si>
-    <t>Often, specific identities are assigned for the agent.</t>
+    <t>Either id or name is needed.</t>
   </si>
   <si>
     <t>PRD-7 (or XCN.1)</t>
@@ -369,7 +380,217 @@
     <t>./Identifiers</t>
   </si>
   <si>
-    <t>FiveWs.identifier</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>This is labeled as "Is Modifier" because applications should not mistake a temporary id for a permanent one. Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage. 
+Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>NPI should be used as the identifier system in the US, Tax id is allowed, Local id is allowed in addition to an 'authoritative' identifier.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri"/&gt;</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>./IdentifierType</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](https://build.fhir.org/ig/HL7/US-Core/extension-rendered-value.html).</t>
+  </si>
+  <si>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="123456"/&gt;</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>./Value</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>./IdentifierIssuingAuthority</t>
   </si>
   <si>
     <t>Practitioner.active</t>
@@ -385,19 +606,21 @@
     <t>Whether this practitioner's record is in active use.</t>
   </si>
   <si>
-    <t>If the practitioner is not in use by one organization, then it should mark the period on the PractitonerRole with an end date (even if they are active) as they may be active in another role.</t>
+    <t>Default is true. ++If the practitioner is not in use by one organization, then it should mark the period on the PractitonerRole with an end date (even if they are active) as they may be active in another role.</t>
   </si>
   <si>
     <t>Need to be able to mark a practitioner record as not to be used because it was created in error.</t>
   </si>
   <si>
-    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="true"/&gt;</t>
   </si>
   <si>
     <t>./statusCode</t>
   </si>
   <si>
-    <t>FiveWs.status</t>
+    <t>status</t>
   </si>
   <si>
     <t>Practitioner.name</t>
@@ -413,9 +636,9 @@
     <t>The name(s) associated with the practitioner.</t>
   </si>
   <si>
-    <t>The selection of the use property should ensure that there is a single usual name specified, and others use the nickname (alias), old, or other values as appropriate.  +    <t>The selection of the use property should ensure that there is a single usual name specified, and others use the nickname (alias), old, or other values as appropriate. -In general, select the value to be used in the ResourceReference.display based on this:+In general select the value to be used in the ResourceReference.display based on this:  1. There is more than 1 name 2. Use = usual@@ -436,6 +659,185 @@
     <t>./PreferredName (GivenNames, FamilyName, TitleCode)</t>
   </si>
   <si>
+    <t>Practitioner.name.id</t>
+  </si>
+  <si>
+    <t>Practitioner.name.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.name.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this name.</t>
+  </si>
+  <si>
+    <t>This is labeled as "Is Modifier" because applications should not mistake a temporary or old name etc.for a current/permanent one. Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
+  </si>
+  <si>
+    <t>The use of a human name</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/name-use</t>
+  </si>
+  <si>
+    <t>HumanName.use</t>
+  </si>
+  <si>
+    <t>XPN.7, but often indicated by which field contains the name</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>./NamePurpose</t>
+  </si>
+  <si>
+    <t>Practitioner.name.text</t>
+  </si>
+  <si>
+    <t>Text representation of the full name</t>
+  </si>
+  <si>
+    <t>A full text representation of the name.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and structured parts.</t>
+  </si>
+  <si>
+    <t>A renderable, unencoded form.</t>
+  </si>
+  <si>
+    <t>HumanName.text</t>
+  </si>
+  <si>
+    <t>implied by XPN.11</t>
+  </si>
+  <si>
+    <t>./formatted</t>
+  </si>
+  <si>
+    <t>Practitioner.name.family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surname
+</t>
+  </si>
+  <si>
+    <t>Family name (often called 'Surname')</t>
+  </si>
+  <si>
+    <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
+  </si>
+  <si>
+    <t>Family Name may be decomposed into specific parts using extensions (de, nl, es related cultures).</t>
+  </si>
+  <si>
+    <t>HumanName.family</t>
+  </si>
+  <si>
+    <t>XPN.1/FN.1</t>
+  </si>
+  <si>
+    <t>./part[partType = FAM]</t>
+  </si>
+  <si>
+    <t>./FamilyName</t>
+  </si>
+  <si>
+    <t>Practitioner.name.given</t>
+  </si>
+  <si>
+    <t>first name
+middle name</t>
+  </si>
+  <si>
+    <t>Given names (not always 'first'). Includes middle names</t>
+  </si>
+  <si>
+    <t>Given name.</t>
+  </si>
+  <si>
+    <t>If only initials are recorded, they may be used in place of the full name.  Not called "first name" since given names do not always come first.</t>
+  </si>
+  <si>
+    <t>HumanName.given</t>
+  </si>
+  <si>
+    <t>XPN.2 + XPN.3</t>
+  </si>
+  <si>
+    <t>./part[partType = GIV]</t>
+  </si>
+  <si>
+    <t>./GivenNames</t>
+  </si>
+  <si>
+    <t>Practitioner.name.prefix</t>
+  </si>
+  <si>
+    <t>Parts that come before the name</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
+  </si>
+  <si>
+    <t>HumanName.prefix</t>
+  </si>
+  <si>
+    <t>XPN.5</t>
+  </si>
+  <si>
+    <t>./part[partType = PFX]</t>
+  </si>
+  <si>
+    <t>./TitleCode</t>
+  </si>
+  <si>
+    <t>Practitioner.name.suffix</t>
+  </si>
+  <si>
+    <t>Parts that come after the name</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the end of the name.</t>
+  </si>
+  <si>
+    <t>HumanName.suffix</t>
+  </si>
+  <si>
+    <t>XPN/4</t>
+  </si>
+  <si>
+    <t>./part[partType = SFX]</t>
+  </si>
+  <si>
+    <t>Practitioner.name.period</t>
+  </si>
+  <si>
+    <t>Time period when name was/is in use</t>
+  </si>
+  <si>
+    <t>Indicates the period of time when this name was valid for the named person.</t>
+  </si>
+  <si>
+    <t>Allows names to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>HumanName.period</t>
+  </si>
+  <si>
+    <t>XPN.13 + XPN.14</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
+  </si>
+  <si>
     <t>Practitioner.telecom</t>
   </si>
   <si>
@@ -449,13 +851,12 @@
     <t>A contact detail for the practitioner, e.g. a telephone number or an email address.</t>
   </si>
   <si>
-    <t>Person may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and to help with identification.  These typically will have home numbers, or mobile numbers that are not role specific.</t>
+    <t>Person may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently, and also to help with identification++These typically will have home numbers, or mobile numbers that are not role specific.</t>
   </si>
   <si>
     <t>Need to know how to reach a practitioner independent to any roles the practitioner may have.</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>PRT-15, STF-10, ROL-12</t>
@@ -508,13 +909,10 @@
     <t>Needed to address the person correctly.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>The gender of a person used for administrative purposes.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/administrative-gender</t>
   </si>
   <si>
     <t>STF-5</t>
@@ -580,13 +978,13 @@
 </t>
   </si>
   <si>
-    <t>Certification, licenses, or training pertaining to the provision of care</t>
-  </si>
-  <si>
-    <t>The official certifications, training, and licenses that authorize or otherwise pertain to the provision of care by the practitioner.  For example, a medical license issued by a medical board authorizing the practitioner to practice medicine within a certian locality.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t>Qualifications obtained by training and certification</t>
+  </si>
+  <si>
+    <t>Qualifications obtained by training and certification.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -602,29 +1000,7 @@
     <t>Practitioner.qualification.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Practitioner.qualification.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Practitioner.qualification.modifierExtension</t>
@@ -634,11 +1010,7 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -662,10 +1034,6 @@
     <t>Practitioner.qualification.code</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
-</t>
-  </si>
-  <si>
     <t>Coded representation of the qualification</t>
   </si>
   <si>
@@ -675,10 +1043,10 @@
     <t>example</t>
   </si>
   <si>
-    <t>Specific qualification the practitioner has to provide a service.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-2.7-0360</t>
+    <t>Specific qualification the practitioner has to provide a service</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/v2-2.7-0360</t>
   </si>
   <si>
     <t>./Qualifications.Value</t>
@@ -687,10 +1055,6 @@
     <t>Practitioner.qualification.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
-</t>
-  </si>
-  <si>
     <t>Period during which the qualification is valid</t>
   </si>
   <si>
@@ -709,10 +1073,6 @@
     <t>Practitioner.qualification.issuer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
-</t>
-  </si>
-  <si>
     <t>Organization that regulates and issues the qualification</t>
   </si>
   <si>
@@ -725,13 +1085,13 @@
     <t>Practitioner.communication</t>
   </si>
   <si>
-    <t>A language the practitioner can use in patient communication</t>
-  </si>
-  <si>
-    <t>A language the practitioner can use in patient communication.</t>
-  </si>
-  <si>
-    <t>The structure aa-BB with this exact casing is one the most widely used notations for locale. However not all systems code this but instead have it as free text. Hence CodeableConcept instead of code as the data type.</t>
+    <t>A language the practitioner is able to use in patient communication</t>
+  </si>
+  <si>
+    <t>A language the practitioner is able to use in patient communication.</t>
+  </si>
+  <si>
+    <t>The structure aa-BB with this exact casing is one the most widely used notations for locale. However not all systems actually code this but instead have it as free text. Hence CodeableConcept instead of code as the data type.</t>
   </si>
   <si>
     <t>Knowing which language a practitioner speaks can help in facilitating communication with patients.</t>
@@ -892,7 +1252,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN27"/>
+  <dimension ref="A1:AN44"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -911,11 +1271,11 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="80.79296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="73.015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="53.0234375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -924,11 +1284,11 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="56.12109375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.27734375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="46.80859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
@@ -936,10 +1296,10 @@
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="53.22265625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="54.6015625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="99.6875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="51.21484375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="23.1640625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1077,70 +1437,72 @@
         <v>42</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="M2" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="M2" t="s" s="2">
+        <v>46</v>
+      </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AE2" t="s" s="2">
         <v>39</v>
@@ -1152,584 +1514,584 @@
         <v>42</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -1739,75 +2101,75 @@
         <v>42</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>41</v>
@@ -1816,31 +2178,31 @@
         <v>42</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -1850,75 +2212,75 @@
         <v>42</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>41</v>
@@ -1927,31 +2289,31 @@
         <v>42</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -1961,77 +2323,75 @@
         <v>42</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
@@ -2040,109 +2400,109 @@
         <v>42</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>42</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
@@ -2151,137 +2511,131 @@
         <v>42</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>119</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>122</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" hidden="true">
@@ -2290,7 +2644,7 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2300,77 +2654,75 @@
         <v>42</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>126</v>
-      </c>
       <c r="M13" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>128</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
@@ -2379,570 +2731,572 @@
         <v>42</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K14" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>137</v>
-      </c>
       <c r="O14" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB14" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AC14" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AD14" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="AE14" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>140</v>
-      </c>
       <c r="AL14" t="s" s="2">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>147</v>
-      </c>
       <c r="O15" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>148</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" hidden="true">
-      <c r="A16" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M16" s="2"/>
-      <c r="N16" t="s" s="2">
-        <v>154</v>
-      </c>
       <c r="O16" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="AF16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="AK16" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" hidden="true">
-      <c r="A17" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="K17" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" t="s" s="2">
-        <v>165</v>
-      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AL17" t="s" s="2">
-        <v>168</v>
-      </c>
       <c r="AM17" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>172</v>
-      </c>
       <c r="M18" s="2"/>
-      <c r="N18" t="s" s="2">
-        <v>173</v>
-      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>40</v>
+        <v>173</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>174</v>
@@ -2951,7 +3305,7 @@
         <v>175</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" hidden="true">
@@ -2960,23 +3314,23 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>177</v>
@@ -2987,276 +3341,284 @@
       <c r="L19" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M19" s="2"/>
+      <c r="M19" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>180</v>
+        <v>43</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O20" t="s" s="2">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>40</v>
+        <v>193</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="O21" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3265,144 +3627,140 @@
         <v>42</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>194</v>
+        <v>43</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>195</v>
+        <v>119</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>197</v>
+        <v>121</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3412,75 +3770,75 @@
         <v>42</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>198</v>
+        <v>128</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3489,360 +3847,368 @@
         <v>42</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>202</v>
+        <v>122</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>204</v>
+        <v>72</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>207</v>
+        <v>134</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>212</v>
+        <v>118</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="N25" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>217</v>
+        <v>43</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>219</v>
+        <v>118</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>40</v>
+        <v>230</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>40</v>
+        <v>232</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>40</v>
+        <v>234</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -3852,77 +4218,75 @@
         <v>42</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>204</v>
+        <v>118</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -3931,26 +4295,1905 @@
         <v>42</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" hidden="true">
+      <c r="A28" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" hidden="true">
+      <c r="A29" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" hidden="true">
+      <c r="A30" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" hidden="true">
+      <c r="A31" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB31" s="2"/>
+      <c r="AC31" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" hidden="true">
+      <c r="A32" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM27">
+  <autoFilter ref="A1:AM44">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -3960,7 +6203,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI26">
+  <conditionalFormatting sqref="A2:AI43">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
